--- a/merge.xlsx
+++ b/merge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05-DUT\NAM4-KI1\PBL6\Crawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ED237C-32C6-4370-A85C-97317CDD4206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA0F93-A7FB-4DEE-8FCA-F0304BEC2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>album</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>BuiAnhTuan</t>
+  </si>
+  <si>
+    <t>Sia</t>
   </si>
 </sst>
 </file>
@@ -365,21 +368,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="91.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="91.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -399,12 +402,29 @@
         <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\BuiAnhTuan\BuiAnhTuan_albums_tracks.csv</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="1">_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc\",A2)</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\loc\BuiAnhTuan</v>
+        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc2\",A2)</f>
+        <v>D:\05-DUT\NAM4-KI1\PBL6\loc2\BuiAnhTuan</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2" si="2">_xlfn.CONCAT("Merge\",A2,".csv")</f>
-        <v>Merge\BuiAnhTuan.csv</v>
+        <f>_xlfn.CONCAT("Merge2\",A2,".csv")</f>
+        <v>Merge2\BuiAnhTuan.csv</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3" si="1">_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\",A3,"\",A3,"_albums_tracks.csv")</f>
+        <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\Sia\Sia_albums_tracks.csv</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc2\",A3)</f>
+        <v>D:\05-DUT\NAM4-KI1\PBL6\loc2\Sia</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("Merge2\",A3,".csv")</f>
+        <v>Merge2\Sia.csv</v>
       </c>
     </row>
   </sheetData>

--- a/merge.xlsx
+++ b/merge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05-DUT\NAM4-KI1\PBL6\Crawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA0F93-A7FB-4DEE-8FCA-F0304BEC2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6294A33-1668-48B8-B413-70DAACF2AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>album</t>
   </si>
@@ -47,10 +47,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>BuiAnhTuan</t>
-  </si>
-  <si>
-    <t>Sia</t>
+    <t>Chillies</t>
   </si>
 </sst>
 </file>
@@ -368,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,32 +396,15 @@
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2" si="0">_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\",A2,"\",A2,"_albums_tracks.csv")</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\BuiAnhTuan\BuiAnhTuan_albums_tracks.csv</v>
+        <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\Chillies\Chillies_albums_tracks.csv</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc2\",A2)</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\loc2\BuiAnhTuan</v>
+        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc\",A2)</f>
+        <v>D:\05-DUT\NAM4-KI1\PBL6\loc\Chillies</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT("Merge2\",A2,".csv")</f>
-        <v>Merge2\BuiAnhTuan.csv</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3" si="1">_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\",A3,"\",A3,"_albums_tracks.csv")</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\Sia\Sia_albums_tracks.csv</v>
-      </c>
-      <c r="C3" t="str">
-        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc2\",A3)</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\loc2\Sia</v>
-      </c>
-      <c r="D3" t="str">
-        <f>_xlfn.CONCAT("Merge2\",A3,".csv")</f>
-        <v>Merge2\Sia.csv</v>
+        <f>_xlfn.CONCAT("Merge\",A2,".csv")</f>
+        <v>Merge\Chillies.csv</v>
       </c>
     </row>
   </sheetData>

--- a/merge.xlsx
+++ b/merge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05-DUT\NAM4-KI1\PBL6\Crawl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6294A33-1668-48B8-B413-70DAACF2AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB09EEC5-F6EE-4F72-81E5-19335F04C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>album</t>
   </si>
@@ -47,7 +45,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>Chillies</t>
+    <t>NooPhuocThinh</t>
+  </si>
+  <si>
+    <t>PhanManhQuynh</t>
+  </si>
+  <si>
+    <t>SonTungMTP</t>
+  </si>
+  <si>
+    <t>SOOBIN</t>
+  </si>
+  <si>
+    <t>HoangThuyLinh</t>
+  </si>
+  <si>
+    <t>HoangTon</t>
+  </si>
+  <si>
+    <t>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\SonTungM-TP\SonTungMTP_albums_tracks.csv</t>
   </si>
 </sst>
 </file>
@@ -365,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,22 +408,107 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B55" si="0">_xlfn.CONCAT("D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\",A2,"\",A2,"_albums_tracks.csv")</f>
+        <v>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\HoangThuyLinh\HoangThuyLinh_albums_tracks.csv</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C38" si="1">_xlfn.CONCAT("D:\DUT\NAM4-KI1\PBL6\AUDIO\",A2)</f>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\HoangThuyLinh</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D39" si="2">_xlfn.CONCAT("Merge\",A2,".csv")</f>
+        <v>Merge\HoangThuyLinh.csv</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\HoangTon\HoangTon_albums_tracks.csv</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C55" si="3">_xlfn.CONCAT("D:\DUT\NAM4-KI1\PBL6\AUDIO\",A3)</f>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\HoangTon</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D55" si="4">_xlfn.CONCAT("Merge\",A3,".csv")</f>
+        <v>Merge\HoangTon.csv</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2" si="0">_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\",A2,"\",A2,"_albums_tracks.csv")</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\Crawl\Data\Chillies\Chillies_albums_tracks.csv</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT("D:\05-DUT\NAM4-KI1\PBL6\loc\",A2)</f>
-        <v>D:\05-DUT\NAM4-KI1\PBL6\loc\Chillies</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT("Merge\",A2,".csv")</f>
-        <v>Merge\Chillies.csv</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\NooPhuocThinh\NooPhuocThinh_albums_tracks.csv</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="3"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\NooPhuocThinh</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="4"/>
+        <v>Merge\NooPhuocThinh.csv</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\PhanManhQuynh\PhanManhQuynh_albums_tracks.csv</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="3"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\PhanManhQuynh</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="4"/>
+        <v>Merge\PhanManhQuynh.csv</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\CRAWL\crawl-data-from-spotify\Data\SOOBIN\SOOBIN_albums_tracks.csv</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\SOOBIN</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="4"/>
+        <v>Merge\SOOBIN.csv</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>D:\DUT\NAM4-KI1\PBL6\AUDIO\SonTungMTP</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="4"/>
+        <v>Merge\SonTungMTP.csv</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>